--- a/biology/Botanique/Mât_totémique/Mât_totémique.xlsx
+++ b/biology/Botanique/Mât_totémique/Mât_totémique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A2t_tot%C3%A9mique</t>
+          <t>Mât_totémique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un mât totémique est une sculpture monumentale qui se présente sous la forme de poteaux en bois – généralement du thuya géant – sculpté et décoré de symboles et de figures par les peuples amérindiens de la côte Nord-Ouest du Pacifique (en). Un mât totémique est à la fois un emblème pour l'individu initié, les familles ou pour commémorer des événements historiques[1], et un objet religieux individuel et collectif : par exemple, selon les Delawere, l'Être suprême nommé Giselemunkaong dirige les événements humains et cosmiques du haut de son poteau totémique[2]. 
-Le totem de la tribu ou le totem individuel est un animal, un végétal ou un phénomène naturel (éclair, nuage, etc.), ou un assemblage de ces divers éléments ; il était trouvé par un rite d'initiation où l'aspirant se séparait de sa tribu et avait pour épreuve répétée le jeûne, afin que lui apparaisse son propre totem le liant à sa puissance[3].
-Il peut mesurer plusieurs dizaines de mètres. De par sa composition et la rigueur du climat dans cette région du monde, il a une durée de vie limitée, de l'ordre d'une soixantaine d'années[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un mât totémique est une sculpture monumentale qui se présente sous la forme de poteaux en bois – généralement du thuya géant – sculpté et décoré de symboles et de figures par les peuples amérindiens de la côte Nord-Ouest du Pacifique (en). Un mât totémique est à la fois un emblème pour l'individu initié, les familles ou pour commémorer des événements historiques, et un objet religieux individuel et collectif : par exemple, selon les Delawere, l'Être suprême nommé Giselemunkaong dirige les événements humains et cosmiques du haut de son poteau totémique. 
+Le totem de la tribu ou le totem individuel est un animal, un végétal ou un phénomène naturel (éclair, nuage, etc.), ou un assemblage de ces divers éléments ; il était trouvé par un rite d'initiation où l'aspirant se séparait de sa tribu et avait pour épreuve répétée le jeûne, afin que lui apparaisse son propre totem le liant à sa puissance.
+Il peut mesurer plusieurs dizaines de mètres. De par sa composition et la rigueur du climat dans cette région du monde, il a une durée de vie limitée, de l'ordre d'une soixantaine d'années.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A2t_tot%C3%A9mique</t>
+          <t>Mât_totémique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme est attesté en français une première fois sous la forme Aoutem en 1609 au sens de « représentation concrète d'un être, espèce animale ou végétale, parfois chose, qui incarne l'esprit des ancêtres et sert d'emblème à une famille, une tribu, ou une nation », puis sous la forme actuelle totem au XIXe siècle par l'intermédiaire de l'anglo-américain[5].
-Le mot totem est la contraction altérée d’odoodeman [oˈtuːtɛm] « otoutem », autrement ot-oteman[5], terme issu de la langue ojibwé qui signifie « sa famille, son clan », ou « blason de la famille ». Le terme se décompose en od- (ot-) possessif « son, sa » et odeman (oteman) « famille, tribu, clan ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme est attesté en français une première fois sous la forme Aoutem en 1609 au sens de « représentation concrète d'un être, espèce animale ou végétale, parfois chose, qui incarne l'esprit des ancêtres et sert d'emblème à une famille, une tribu, ou une nation », puis sous la forme actuelle totem au XIXe siècle par l'intermédiaire de l'anglo-américain.
+Le mot totem est la contraction altérée d’odoodeman [oˈtuːtɛm] « otoutem », autrement ot-oteman, terme issu de la langue ojibwé qui signifie « sa famille, son clan », ou « blason de la famille ». Le terme se décompose en od- (ot-) possessif « son, sa » et odeman (oteman) « famille, tribu, clan ».
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A2t_tot%C3%A9mique</t>
+          <t>Mât_totémique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M%C3%A2t_tot%C3%A9mique</t>
+          <t>Mât_totémique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,7 +587,9 @@
           <t>Types</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			À Totem Park, Victoria, Colombie-Britannique.
